--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H2">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>116.6730489294564</v>
+        <v>591.433883409552</v>
       </c>
       <c r="R2">
-        <v>116.6730489294564</v>
+        <v>5322.904950685967</v>
       </c>
       <c r="S2">
-        <v>0.0002522152826801698</v>
+        <v>0.001227541423503981</v>
       </c>
       <c r="T2">
-        <v>0.0002522152826801698</v>
+        <v>0.001227541423503981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H3">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>117.4014859381134</v>
+        <v>558.8488300929794</v>
       </c>
       <c r="R3">
-        <v>117.4014859381134</v>
+        <v>5029.639470836814</v>
       </c>
       <c r="S3">
-        <v>0.0002537899646460468</v>
+        <v>0.001159910021490647</v>
       </c>
       <c r="T3">
-        <v>0.0002537899646460468</v>
+        <v>0.001159910021490647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H4">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I4">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J4">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>136.9606895244725</v>
+        <v>655.4497080894931</v>
       </c>
       <c r="R4">
-        <v>136.9606895244725</v>
+        <v>5899.047372805438</v>
       </c>
       <c r="S4">
-        <v>0.0002960716235792531</v>
+        <v>0.00136040847552572</v>
       </c>
       <c r="T4">
-        <v>0.0002960716235792531</v>
+        <v>0.00136040847552572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H5">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J5">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>138032.038828876</v>
+        <v>147696.7179246113</v>
       </c>
       <c r="R5">
-        <v>138032.038828876</v>
+        <v>1329270.461321502</v>
       </c>
       <c r="S5">
-        <v>0.298387588321228</v>
+        <v>0.3065496320955546</v>
       </c>
       <c r="T5">
-        <v>0.298387588321228</v>
+        <v>0.3065496320955545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H6">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J6">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>138893.8286456838</v>
+        <v>139559.366373984</v>
       </c>
       <c r="R6">
-        <v>138893.8286456838</v>
+        <v>1256034.297365856</v>
       </c>
       <c r="S6">
-        <v>0.3002505426560246</v>
+        <v>0.2896602782958969</v>
       </c>
       <c r="T6">
-        <v>0.3002505426560246</v>
+        <v>0.2896602782958969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H7">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J7">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>162033.6777682227</v>
+        <v>163683.1662254054</v>
       </c>
       <c r="R7">
-        <v>162033.6777682227</v>
+        <v>1473148.496028648</v>
       </c>
       <c r="S7">
-        <v>0.3502725798031498</v>
+        <v>0.3397300569146384</v>
       </c>
       <c r="T7">
-        <v>0.3502725798031498</v>
+        <v>0.3397300569146384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H8">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I8">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J8">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>7314.962692118815</v>
+        <v>9517.608266234591</v>
       </c>
       <c r="R8">
-        <v>7314.962692118815</v>
+        <v>85658.47439611131</v>
       </c>
       <c r="S8">
-        <v>0.01581295252087862</v>
+        <v>0.01975412421779785</v>
       </c>
       <c r="T8">
-        <v>0.01581295252087862</v>
+        <v>0.01975412421779785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H9">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I9">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J9">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>7360.6329612236</v>
+        <v>8993.235582319981</v>
       </c>
       <c r="R9">
-        <v>7360.6329612236</v>
+        <v>80939.12024087984</v>
       </c>
       <c r="S9">
-        <v>0.01591167917573194</v>
+        <v>0.01866577062677878</v>
       </c>
       <c r="T9">
-        <v>0.01591167917573194</v>
+        <v>0.01866577062677878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H10">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I10">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J10">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>8586.921687151047</v>
+        <v>10547.77843273099</v>
       </c>
       <c r="R10">
-        <v>8586.921687151047</v>
+        <v>94930.00589457895</v>
       </c>
       <c r="S10">
-        <v>0.01856258065208146</v>
+        <v>0.02189227792881316</v>
       </c>
       <c r="T10">
-        <v>0.01856258065208146</v>
+        <v>0.02189227792881316</v>
       </c>
     </row>
   </sheetData>
